--- a/ConceptMap-R5-ExtendedContactDetail-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ExtendedContactDetail-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:32.8510319-06:00</t>
+    <t>2026-02-09T22:05:43.8863394-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ConceptMap-R5-ExtendedContactDetail-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ExtendedContactDetail-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.8863394-06:00</t>
+    <t>2026-02-17T14:42:27.2704489-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:purpose</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.purpose</t>
   </si>
   <si>
     <t>ExtendedContactDetail.name</t>
@@ -129,7 +129,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:name</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.name</t>
   </si>
   <si>
     <t>ExtendedContactDetail.telecom</t>
@@ -138,7 +138,7 @@
     <t>telecom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:telecom</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.telecom</t>
   </si>
   <si>
     <t>ExtendedContactDetail.address</t>
@@ -147,7 +147,7 @@
     <t>address</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:address</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.address</t>
   </si>
   <si>
     <t>ExtendedContactDetail.organization</t>
@@ -156,7 +156,7 @@
     <t>organization</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:organization</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.organization</t>
   </si>
   <si>
     <t>ExtendedContactDetail.period</t>
@@ -165,7 +165,7 @@
     <t>period</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:period</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail:http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.period</t>
   </si>
 </sst>
 </file>
